--- a/Data/SWF.xlsx
+++ b/Data/SWF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timodaehler/Desktop/COVID19-DOMINANCE/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725623EB-FE61-F94C-A7ED-1F9CC9E87C12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB03C164-3CE4-5947-B5B9-8C33A85BEBEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{E3D46C68-1D1A-A640-9EF2-14A7A07D2FA6}"/>
   </bookViews>
@@ -1511,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F50B0B7-EEE0-DB45-9D10-0186023841D1}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
